--- a/StatisticalAnalysis/01_Exp_BG_Training_Iterations.xlsx
+++ b/StatisticalAnalysis/01_Exp_BG_Training_Iterations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geige\Documents\MasterThesisCode\SpikingLearningModel\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geige\Documents\MasterThesisCode\SpikingLearningModel\StatisticalAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465BA426-80BF-4170-BFB6-2A96FCCA471B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1081D5EA-2F93-4EAC-A6D1-9FF08868AB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="0" windowWidth="10260" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
   <si>
     <t>Experiment</t>
   </si>
@@ -56,19 +56,22 @@
     <t>Iterations</t>
   </si>
   <si>
-    <t>SIM</t>
-  </si>
-  <si>
     <t>Motor</t>
   </si>
   <si>
     <t>Premotor</t>
   </si>
   <si>
-    <t>EXO_Opp_at_Finger</t>
-  </si>
-  <si>
-    <t>EXO_Opp_at_Actuator</t>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>GroupName</t>
+  </si>
+  <si>
+    <t>Exoskeleton (opposition sensor at actuator)</t>
+  </si>
+  <si>
+    <t>Exoskeleton (opposition sensor between fingers)</t>
   </si>
 </sst>
 </file>
@@ -386,412 +389,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>414</v>
+      </c>
+      <c r="G2">
+        <f>F2-E2</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="E3">
+        <f>F2</f>
         <v>414</v>
       </c>
-      <c r="F2">
-        <f>E2-D2</f>
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="F3">
+        <v>468</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="0">F3-E3</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>316</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <f>E2</f>
-        <v>414</v>
-      </c>
-      <c r="E3">
-        <v>468</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F19" si="0">E3-D3</f>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f>F4</f>
+        <v>316</v>
+      </c>
+      <c r="F5">
+        <v>410</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>322</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>316</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="E7">
+        <f>F6</f>
+        <v>322</v>
+      </c>
+      <c r="F7">
+        <v>368</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>476</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <f>E4</f>
-        <v>316</v>
-      </c>
-      <c r="E5">
-        <v>410</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>F8</f>
+        <v>476</v>
+      </c>
+      <c r="F9">
+        <v>517</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>325</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f>F10</f>
+        <v>325</v>
+      </c>
+      <c r="F11">
+        <v>381</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>401</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f>F12</f>
+        <v>401</v>
+      </c>
+      <c r="F13">
+        <v>515</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>372</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>322</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="E15">
+        <f>F14</f>
+        <v>372</v>
+      </c>
+      <c r="F15">
+        <v>490</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>371</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f>F16</f>
+        <v>371</v>
+      </c>
+      <c r="F17">
+        <v>405</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>381</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G19" si="1">F18-E18</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <f>F18</f>
+        <v>381</v>
+      </c>
+      <c r="F19">
+        <v>462</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f>E6</f>
-        <v>322</v>
-      </c>
-      <c r="E7">
-        <v>368</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>476</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <f>E8</f>
-        <v>476</v>
-      </c>
-      <c r="E9">
-        <v>517</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>325</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <f>E10</f>
-        <v>325</v>
-      </c>
-      <c r="E11">
-        <v>381</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>401</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <f>E12</f>
-        <v>401</v>
-      </c>
-      <c r="E13">
-        <v>515</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>372</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15">
-        <f>E14</f>
-        <v>372</v>
-      </c>
-      <c r="E15">
-        <v>490</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <f>E16</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <f>E18</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="E21">
+        <f>F20</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/StatisticalAnalysis/01_Exp_BG_Training_Iterations.xlsx
+++ b/StatisticalAnalysis/01_Exp_BG_Training_Iterations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geige\Documents\MasterThesisCode\SpikingLearningModel\StatisticalAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1081D5EA-2F93-4EAC-A6D1-9FF08868AB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC26FE5-1E0C-4963-A474-07D9CB34F4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="12">
   <si>
     <t>Experiment</t>
   </si>
@@ -68,10 +68,10 @@
     <t>GroupName</t>
   </si>
   <si>
-    <t>Exoskeleton (opposition sensor at actuator)</t>
-  </si>
-  <si>
-    <t>Exoskeleton (opposition sensor between fingers)</t>
+    <t>Experiment (opposition sensor at actuator)</t>
+  </si>
+  <si>
+    <t>Experiment (opposition sensor between fingers)</t>
   </si>
 </sst>
 </file>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -472,7 +472,7 @@
         <v>468</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G21" si="0">F3-E3</f>
+        <f t="shared" ref="G3:G23" si="0">F3-E3</f>
         <v>54</v>
       </c>
     </row>
@@ -625,13 +625,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -640,36 +640,36 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>325</v>
+        <f t="shared" ref="G10:G11" si="1">F10-E10</f>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
         <f>F10</f>
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="F11">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -680,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -689,11 +689,11 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>401</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -704,21 +704,21 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13">
         <f>F12</f>
-        <v>401</v>
+        <v>325</v>
       </c>
       <c r="F13">
-        <v>515</v>
+        <v>381</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -738,11 +738,11 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -753,21 +753,21 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15">
         <f>F14</f>
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="F15">
-        <v>490</v>
+        <v>515</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -778,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
@@ -787,11 +787,11 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
@@ -802,21 +802,21 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17">
         <f>F16</f>
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F17">
-        <v>405</v>
+        <v>490</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -836,11 +836,11 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G19" si="1">F18-E18</f>
-        <v>381</v>
+        <f t="shared" si="0"/>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
@@ -851,32 +851,32 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19">
         <f>F18</f>
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F19">
-        <v>462</v>
+        <v>405</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -884,29 +884,78 @@
       <c r="E20">
         <v>0</v>
       </c>
+      <c r="F20">
+        <v>381</v>
+      </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="G20:G21" si="2">F20-E20</f>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21">
         <f>F20</f>
-        <v>0</v>
+        <v>381</v>
+      </c>
+      <c r="F21">
+        <v>462</v>
       </c>
       <c r="G21">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/StatisticalAnalysis/01_Exp_BG_Training_Iterations.xlsx
+++ b/StatisticalAnalysis/01_Exp_BG_Training_Iterations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geige\Documents\MasterThesisCode\SpikingLearningModel\StatisticalAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF91FF6B-77C4-4349-841E-50812E490F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E9925-BC62-42E3-AE1F-E912DEFD5CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10260" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="23">
   <si>
     <t>Group</t>
   </si>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -503,9 +503,6 @@
         <f>H2-G2</f>
         <v>414</v>
       </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
@@ -534,9 +531,6 @@
         <f t="shared" ref="I3:I23" si="0">H3-G3</f>
         <v>54</v>
       </c>
-      <c r="J3">
-        <v>30</v>
-      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
@@ -564,9 +558,6 @@
         <f t="shared" si="0"/>
         <v>316</v>
       </c>
-      <c r="J4">
-        <v>30</v>
-      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -595,9 +586,6 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="J5">
-        <v>30</v>
-      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
@@ -625,9 +613,6 @@
         <f t="shared" si="0"/>
         <v>322</v>
       </c>
-      <c r="J6">
-        <v>30</v>
-      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
@@ -656,9 +641,6 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="J7">
-        <v>30</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -686,9 +668,6 @@
         <f t="shared" si="0"/>
         <v>476</v>
       </c>
-      <c r="J8">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
@@ -717,9 +696,6 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="J9">
-        <v>30</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
@@ -747,9 +723,6 @@
         <f t="shared" ref="I10:I11" si="1">H10-G10</f>
         <v>347</v>
       </c>
-      <c r="J10">
-        <v>30</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -778,9 +751,6 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="J11">
-        <v>30</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
@@ -1191,13 +1161,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1212,28 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>669</v>
+        <v>317</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I25" si="3">H24-G24</f>
-        <v>669</v>
-      </c>
-      <c r="J24">
-        <v>30</v>
-      </c>
-      <c r="K24" t="s">
-        <v>9</v>
+        <f>H24-G24</f>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1246,28 +1204,22 @@
       </c>
       <c r="G25">
         <f>H24</f>
-        <v>669</v>
+        <v>317</v>
       </c>
       <c r="H25">
-        <v>717</v>
+        <v>375</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="J25">
-        <v>30</v>
+        <f t="shared" ref="I25:I29" si="3">H25-G25</f>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1282,25 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26:I27" si="4">H26-G26</f>
-        <v>339</v>
-      </c>
-      <c r="J26">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1313,28 +1259,22 @@
       </c>
       <c r="G27">
         <f>H26</f>
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="H27">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="I27">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="J27">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -1349,25 +1289,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:I29" si="5">H28-G28</f>
-        <v>372</v>
-      </c>
-      <c r="J28">
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1380,16 +1314,217 @@
       </c>
       <c r="G29">
         <f>H28</f>
+        <v>347</v>
+      </c>
+      <c r="H29">
+        <v>401</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>669</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30:I31" si="4">H30-G30</f>
+        <v>669</v>
+      </c>
+      <c r="J30">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <f>H30</f>
+        <v>669</v>
+      </c>
+      <c r="H31">
+        <v>717</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>339</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I33" si="5">H32-G32</f>
+        <v>339</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33">
+        <f>H32</f>
+        <v>339</v>
+      </c>
+      <c r="H33">
+        <v>375</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>372</v>
       </c>
-      <c r="H29">
+      <c r="I34">
+        <f t="shared" ref="I34:I35" si="6">H34-G34</f>
+        <v>372</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35">
+        <f>H34</f>
+        <v>372</v>
+      </c>
+      <c r="H35">
         <v>431</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="5"/>
+      <c r="I35">
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="J29">
+      <c r="J35">
         <v>20</v>
       </c>
     </row>
